--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43026,6 +43026,41 @@
         <v>862300</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43061,6 +43061,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>302400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43096,6 +43096,41 @@
         <v>302400</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>130900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43131,6 +43131,41 @@
         <v>130900</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>605200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43166,6 +43166,41 @@
         <v>605200</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>151900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43201,6 +43201,41 @@
         <v>151900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>71900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43236,6 +43236,41 @@
         <v>71900</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>57700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43271,6 +43271,41 @@
         <v>57700</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>47000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43306,6 +43306,43 @@
         <v>47000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43343,6 +43343,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>205600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43378,6 +43378,41 @@
         <v>205600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>416600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43413,6 +43413,41 @@
         <v>416600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>34100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43448,6 +43448,76 @@
         <v>34100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>134900</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>78300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43518,6 +43518,76 @@
         <v>78300</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>105000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43588,6 +43588,41 @@
         <v>105000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43623,6 +43623,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>181500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43658,6 +43658,41 @@
         <v>181500</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>115000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43693,6 +43693,41 @@
         <v>115000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1601000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43728,6 +43728,76 @@
         <v>1601000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>711000</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43798,6 +43798,41 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>435000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43833,6 +43833,41 @@
         <v>435000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>295500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2237"/>
+  <dimension ref="A1:I2238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78903,6 +78903,41 @@
         <v>295500</v>
       </c>
     </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E2238" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2238" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2238" t="n">
+        <v>356500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2238"/>
+  <dimension ref="A1:I2239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78938,6 +78938,41 @@
         <v>356500</v>
       </c>
     </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E2239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2239" t="n">
+        <v>807100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2239"/>
+  <dimension ref="A1:I2240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78973,6 +78973,41 @@
         <v>807100</v>
       </c>
     </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E2240" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2240" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2240" t="n">
+        <v>607100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2240"/>
+  <dimension ref="A1:I2241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79008,6 +79008,41 @@
         <v>607100</v>
       </c>
     </row>
+    <row r="2241">
+      <c r="A2241" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E2241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2241" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2241" t="n">
+        <v>691700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2241"/>
+  <dimension ref="A1:I2242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79043,6 +79043,41 @@
         <v>691700</v>
       </c>
     </row>
+    <row r="2242">
+      <c r="A2242" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D2242" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E2242" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2242" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2242" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2242" t="n">
+        <v>113900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2242"/>
+  <dimension ref="A1:I2243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79078,6 +79078,43 @@
         <v>113900</v>
       </c>
     </row>
+    <row r="2243">
+      <c r="A2243" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D2243" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E2243" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2243" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2243" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2243" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2243"/>
+  <dimension ref="A1:I2244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79115,6 +79115,43 @@
         </is>
       </c>
     </row>
+    <row r="2244">
+      <c r="A2244" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D2244" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E2244" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2244" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2244" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2244" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2244"/>
+  <dimension ref="A1:I2245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79152,6 +79152,41 @@
         </is>
       </c>
     </row>
+    <row r="2245">
+      <c r="A2245" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D2245" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E2245" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2245" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2245" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2245" t="n">
+        <v>20100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2245"/>
+  <dimension ref="A1:I2246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79187,6 +79187,43 @@
         <v>20100</v>
       </c>
     </row>
+    <row r="2246">
+      <c r="A2246" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D2246" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E2246" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2246" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2246" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2246" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2246"/>
+  <dimension ref="A1:I2247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79224,6 +79224,41 @@
         </is>
       </c>
     </row>
+    <row r="2247">
+      <c r="A2247" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D2247" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E2247" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2247" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2247" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2247" t="n">
+        <v>1134000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2247"/>
+  <dimension ref="A1:I2248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79259,6 +79259,43 @@
         <v>1134000</v>
       </c>
     </row>
+    <row r="2248">
+      <c r="A2248" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D2248" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E2248" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2248" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2248" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2248" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2248"/>
+  <dimension ref="A1:I2249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79296,6 +79296,41 @@
         </is>
       </c>
     </row>
+    <row r="2249">
+      <c r="A2249" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D2249" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E2249" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2249" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2249" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2249" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2249"/>
+  <dimension ref="A1:I2250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79331,6 +79331,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="2250">
+      <c r="A2250" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D2250" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E2250" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2250" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2250" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2250" t="n">
+        <v>123000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2250"/>
+  <dimension ref="A1:I2251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79366,6 +79366,43 @@
         <v>123000</v>
       </c>
     </row>
+    <row r="2251">
+      <c r="A2251" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D2251" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E2251" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2251" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2251" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2251" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0055.xlsx
+++ b/data/0055.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2251"/>
+  <dimension ref="A1:I2252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79403,6 +79403,41 @@
         </is>
       </c>
     </row>
+    <row r="2252">
+      <c r="A2252" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="D2252" t="inlineStr">
+        <is>
+          <t>SERSOL</t>
+        </is>
+      </c>
+      <c r="E2252" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2252" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2252" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2252" t="n">
+        <v>43600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
